--- a/DataSource/Datas/#setting.xlsx
+++ b/DataSource/Datas/#setting.xlsx
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
